--- a/data/crossings_per_year_people_and_money.xlsx
+++ b/data/crossings_per_year_people_and_money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrik/OneDrive/OOP2020/AI2020/Python-project/border-crossing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFCB45FB-03CB-AD40-9830-CA99B65F635B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC57E940-063B-BA4B-8FFF-2FA255BA9100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1640" yWindow="3160" windowWidth="23320" windowHeight="13520" xr2:uid="{0AA7B50A-3372-2045-8FD9-921CB228C949}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,6 +66,12 @@
       <sz val="15"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -95,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -104,6 +110,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +430,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,8 +456,8 @@
       <c r="A2" s="2">
         <v>2011</v>
       </c>
-      <c r="B2" s="2">
-        <v>330535715</v>
+      <c r="B2" s="4">
+        <v>153706850</v>
       </c>
       <c r="C2" s="3">
         <v>22802971600</v>
@@ -458,8 +467,8 @@
       <c r="A3" s="2">
         <v>2012</v>
       </c>
-      <c r="B3" s="2">
-        <v>344503916</v>
+      <c r="B3" s="4">
+        <v>159061181</v>
       </c>
       <c r="C3" s="3">
         <v>22438322000</v>
@@ -469,8 +478,8 @@
       <c r="A4" s="2">
         <v>2013</v>
       </c>
-      <c r="B4" s="2">
-        <v>356218438</v>
+      <c r="B4" s="4">
+        <v>166151041</v>
       </c>
       <c r="C4" s="3">
         <v>22302751000</v>
@@ -480,8 +489,8 @@
       <c r="A5" s="2">
         <v>2014</v>
       </c>
-      <c r="B5" s="2">
-        <v>364112233</v>
+      <c r="B5" s="4">
+        <v>173260603</v>
       </c>
       <c r="C5" s="3">
         <v>23647283800</v>
@@ -491,8 +500,8 @@
       <c r="A6" s="2">
         <v>2015</v>
       </c>
-      <c r="B6" s="2">
-        <v>365316686</v>
+      <c r="B6" s="4">
+        <v>181281186</v>
       </c>
       <c r="C6" s="3">
         <v>24784772600</v>
@@ -502,8 +511,8 @@
       <c r="A7" s="2">
         <v>2016</v>
       </c>
-      <c r="B7" s="2">
-        <v>367484183</v>
+      <c r="B7" s="4">
+        <v>185155513</v>
       </c>
       <c r="C7" s="3">
         <v>26993281600</v>
@@ -513,8 +522,8 @@
       <c r="A8" s="2">
         <v>2017</v>
       </c>
-      <c r="B8" s="2">
-        <v>372971276</v>
+      <c r="B8" s="4">
+        <v>187965778</v>
       </c>
       <c r="C8" s="3">
         <v>30290545100</v>
@@ -524,8 +533,8 @@
       <c r="A9" s="2">
         <v>2018</v>
       </c>
-      <c r="B9" s="2">
-        <v>379157530</v>
+      <c r="B9" s="4">
+        <v>192913686</v>
       </c>
       <c r="C9" s="3">
         <v>33677227200</v>
@@ -535,8 +544,8 @@
       <c r="A10" s="2">
         <v>2019</v>
       </c>
-      <c r="B10" s="2">
-        <v>370200249</v>
+      <c r="B10" s="4">
+        <v>188228921</v>
       </c>
       <c r="C10" s="3">
         <v>36045524000</v>
